--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Areg-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Areg-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Areg</t>
+  </si>
+  <si>
+    <t>Erbb3</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Areg</t>
-  </si>
-  <si>
-    <t>Erbb3</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2806903333333333</v>
+        <v>0.2572186666666667</v>
       </c>
       <c r="H2">
-        <v>0.842071</v>
+        <v>0.771656</v>
       </c>
       <c r="I2">
-        <v>0.2582678619187009</v>
+        <v>0.3584158204297983</v>
       </c>
       <c r="J2">
-        <v>0.2582678619187009</v>
+        <v>0.3584158204297984</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1680563333333333</v>
+        <v>0.1311436666666667</v>
       </c>
       <c r="N2">
-        <v>0.504169</v>
+        <v>0.393431</v>
       </c>
       <c r="O2">
-        <v>0.03491515448966758</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="P2">
-        <v>0.03491515448966757</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="Q2">
-        <v>0.04717178822211111</v>
+        <v>0.03373259908177777</v>
       </c>
       <c r="R2">
-        <v>0.424546093999</v>
+        <v>0.303593391736</v>
       </c>
       <c r="S2">
-        <v>0.009017462298607577</v>
+        <v>0.009546197474364764</v>
       </c>
       <c r="T2">
-        <v>0.009017462298607577</v>
+        <v>0.009546197474364764</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2806903333333333</v>
+        <v>0.2572186666666667</v>
       </c>
       <c r="H3">
-        <v>0.842071</v>
+        <v>0.771656</v>
       </c>
       <c r="I3">
-        <v>0.2582678619187009</v>
+        <v>0.3584158204297983</v>
       </c>
       <c r="J3">
-        <v>0.2582678619187009</v>
+        <v>0.3584158204297984</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>0.908345</v>
       </c>
       <c r="O3">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="P3">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="Q3">
-        <v>0.08498788694388888</v>
+        <v>0.0778810965911111</v>
       </c>
       <c r="R3">
-        <v>0.764890982495</v>
+        <v>0.70092986932</v>
       </c>
       <c r="S3">
-        <v>0.01624647051212728</v>
+        <v>0.02204005465977989</v>
       </c>
       <c r="T3">
-        <v>0.01624647051212728</v>
+        <v>0.02204005465977989</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2806903333333333</v>
+        <v>0.2572186666666667</v>
       </c>
       <c r="H4">
-        <v>0.842071</v>
+        <v>0.771656</v>
       </c>
       <c r="I4">
-        <v>0.2582678619187009</v>
+        <v>0.3584158204297983</v>
       </c>
       <c r="J4">
-        <v>0.2582678619187009</v>
+        <v>0.3584158204297984</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.950355666666666</v>
+        <v>4.009307333333333</v>
       </c>
       <c r="N4">
-        <v>11.851067</v>
+        <v>12.027922</v>
       </c>
       <c r="O4">
-        <v>0.8207205027925185</v>
+        <v>0.8142640654908683</v>
       </c>
       <c r="P4">
-        <v>0.8207205027925184</v>
+        <v>0.8142640654908684</v>
       </c>
       <c r="Q4">
-        <v>1.108826648861889</v>
+        <v>1.031268686536889</v>
       </c>
       <c r="R4">
-        <v>9.979439839756999</v>
+        <v>9.281418178832</v>
       </c>
       <c r="S4">
-        <v>0.2119657294890649</v>
+        <v>0.2918451230794126</v>
       </c>
       <c r="T4">
-        <v>0.2119657294890649</v>
+        <v>0.2918451230794126</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2806903333333333</v>
+        <v>0.2572186666666667</v>
       </c>
       <c r="H5">
-        <v>0.842071</v>
+        <v>0.771656</v>
       </c>
       <c r="I5">
-        <v>0.2582678619187009</v>
+        <v>0.3584158204297983</v>
       </c>
       <c r="J5">
-        <v>0.2582678619187009</v>
+        <v>0.3584158204297984</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3920839999999999</v>
+        <v>0.480609</v>
       </c>
       <c r="N5">
-        <v>1.176252</v>
+        <v>1.441827</v>
       </c>
       <c r="O5">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="P5">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="Q5">
-        <v>0.1100541886546666</v>
+        <v>0.123621606168</v>
       </c>
       <c r="R5">
-        <v>0.9904876978919999</v>
+        <v>1.112594455512</v>
       </c>
       <c r="S5">
-        <v>0.02103819961890111</v>
+        <v>0.03498444521624103</v>
       </c>
       <c r="T5">
-        <v>0.02103819961890112</v>
+        <v>0.03498444521624103</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.326221</v>
+        <v>0.4604356666666667</v>
       </c>
       <c r="H6">
-        <v>0.9786630000000001</v>
+        <v>1.381307</v>
       </c>
       <c r="I6">
-        <v>0.3001613884683615</v>
+        <v>0.6415841795702016</v>
       </c>
       <c r="J6">
-        <v>0.3001613884683614</v>
+        <v>0.6415841795702016</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1680563333333333</v>
+        <v>0.1311436666666667</v>
       </c>
       <c r="N6">
-        <v>0.504169</v>
+        <v>0.393431</v>
       </c>
       <c r="O6">
-        <v>0.03491515448966758</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="P6">
-        <v>0.03491515448966757</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="Q6">
-        <v>0.05482350511633334</v>
+        <v>0.06038322159077777</v>
       </c>
       <c r="R6">
-        <v>0.493411546047</v>
+        <v>0.543448994317</v>
       </c>
       <c r="S6">
-        <v>0.01048018125020597</v>
+        <v>0.01708822246535032</v>
       </c>
       <c r="T6">
-        <v>0.01048018125020596</v>
+        <v>0.01708822246535032</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.326221</v>
+        <v>0.4604356666666667</v>
       </c>
       <c r="H7">
-        <v>0.9786630000000001</v>
+        <v>1.381307</v>
       </c>
       <c r="I7">
-        <v>0.3001613884683615</v>
+        <v>0.6415841795702016</v>
       </c>
       <c r="J7">
-        <v>0.3001613884683614</v>
+        <v>0.6415841795702016</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>0.908345</v>
       </c>
       <c r="O7">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="P7">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="Q7">
-        <v>0.09877373808166667</v>
+        <v>0.1394114785461111</v>
       </c>
       <c r="R7">
-        <v>0.8889636427350001</v>
+        <v>1.254703306915</v>
       </c>
       <c r="S7">
-        <v>0.0188818039937369</v>
+        <v>0.03945291915301194</v>
       </c>
       <c r="T7">
-        <v>0.01888180399373689</v>
+        <v>0.03945291915301194</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.326221</v>
+        <v>0.4604356666666667</v>
       </c>
       <c r="H8">
-        <v>0.9786630000000001</v>
+        <v>1.381307</v>
       </c>
       <c r="I8">
-        <v>0.3001613884683615</v>
+        <v>0.6415841795702016</v>
       </c>
       <c r="J8">
-        <v>0.3001613884683614</v>
+        <v>0.6415841795702016</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.950355666666666</v>
+        <v>4.009307333333333</v>
       </c>
       <c r="N8">
-        <v>11.851067</v>
+        <v>12.027922</v>
       </c>
       <c r="O8">
-        <v>0.8207205027925185</v>
+        <v>0.8142640654908683</v>
       </c>
       <c r="P8">
-        <v>0.8207205027925184</v>
+        <v>0.8142640654908684</v>
       </c>
       <c r="Q8">
-        <v>1.288688975935667</v>
+        <v>1.846028094894889</v>
       </c>
       <c r="R8">
-        <v>11.598200783421</v>
+        <v>16.614252854054</v>
       </c>
       <c r="S8">
-        <v>0.2463486056626541</v>
+        <v>0.5224189424114557</v>
       </c>
       <c r="T8">
-        <v>0.246348605662654</v>
+        <v>0.5224189424114557</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.326221</v>
+        <v>0.4604356666666667</v>
       </c>
       <c r="H9">
-        <v>0.9786630000000001</v>
+        <v>1.381307</v>
       </c>
       <c r="I9">
-        <v>0.3001613884683615</v>
+        <v>0.6415841795702016</v>
       </c>
       <c r="J9">
-        <v>0.3001613884683614</v>
+        <v>0.6415841795702016</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3920839999999999</v>
+        <v>0.480609</v>
       </c>
       <c r="N9">
-        <v>1.176252</v>
+        <v>1.441827</v>
       </c>
       <c r="O9">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="P9">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="Q9">
-        <v>0.127906034564</v>
+        <v>0.221289525321</v>
       </c>
       <c r="R9">
-        <v>1.151154311076</v>
+        <v>1.991605727889</v>
       </c>
       <c r="S9">
-        <v>0.02445079756176454</v>
+        <v>0.06262409554038362</v>
       </c>
       <c r="T9">
-        <v>0.02445079756176453</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.4799073333333334</v>
-      </c>
-      <c r="H10">
-        <v>1.439722</v>
-      </c>
-      <c r="I10">
-        <v>0.4415707496129376</v>
-      </c>
-      <c r="J10">
-        <v>0.4415707496129376</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.1680563333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.504169</v>
-      </c>
-      <c r="O10">
-        <v>0.03491515448966758</v>
-      </c>
-      <c r="P10">
-        <v>0.03491515448966757</v>
-      </c>
-      <c r="Q10">
-        <v>0.08065146677977779</v>
-      </c>
-      <c r="R10">
-        <v>0.7258632010180001</v>
-      </c>
-      <c r="S10">
-        <v>0.01541751094085404</v>
-      </c>
-      <c r="T10">
-        <v>0.01541751094085403</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.4799073333333334</v>
-      </c>
-      <c r="H11">
-        <v>1.439722</v>
-      </c>
-      <c r="I11">
-        <v>0.4415707496129376</v>
-      </c>
-      <c r="J11">
-        <v>0.4415707496129376</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.3027816666666667</v>
-      </c>
-      <c r="N11">
-        <v>0.908345</v>
-      </c>
-      <c r="O11">
-        <v>0.06290550590162643</v>
-      </c>
-      <c r="P11">
-        <v>0.06290550590162643</v>
-      </c>
-      <c r="Q11">
-        <v>0.1453071422322222</v>
-      </c>
-      <c r="R11">
-        <v>1.30776428009</v>
-      </c>
-      <c r="S11">
-        <v>0.02777723139576225</v>
-      </c>
-      <c r="T11">
-        <v>0.02777723139576225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.4799073333333334</v>
-      </c>
-      <c r="H12">
-        <v>1.439722</v>
-      </c>
-      <c r="I12">
-        <v>0.4415707496129376</v>
-      </c>
-      <c r="J12">
-        <v>0.4415707496129376</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>3.950355666666666</v>
-      </c>
-      <c r="N12">
-        <v>11.851067</v>
-      </c>
-      <c r="O12">
-        <v>0.8207205027925185</v>
-      </c>
-      <c r="P12">
-        <v>0.8207205027925184</v>
-      </c>
-      <c r="Q12">
-        <v>1.895804653708222</v>
-      </c>
-      <c r="R12">
-        <v>17.062241883374</v>
-      </c>
-      <c r="S12">
-        <v>0.3624061676407994</v>
-      </c>
-      <c r="T12">
-        <v>0.3624061676407994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.4799073333333334</v>
-      </c>
-      <c r="H13">
-        <v>1.439722</v>
-      </c>
-      <c r="I13">
-        <v>0.4415707496129376</v>
-      </c>
-      <c r="J13">
-        <v>0.4415707496129376</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.3920839999999999</v>
-      </c>
-      <c r="N13">
-        <v>1.176252</v>
-      </c>
-      <c r="O13">
-        <v>0.08145883681618755</v>
-      </c>
-      <c r="P13">
-        <v>0.08145883681618755</v>
-      </c>
-      <c r="Q13">
-        <v>0.1881639868826667</v>
-      </c>
-      <c r="R13">
-        <v>1.693475881944</v>
-      </c>
-      <c r="S13">
-        <v>0.0359698396355219</v>
-      </c>
-      <c r="T13">
-        <v>0.0359698396355219</v>
+        <v>0.06262409554038362</v>
       </c>
     </row>
   </sheetData>
